--- a/teaching/traditional_assets/database/data/mauritius/mauritius_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0364</v>
+        <v>0.31435</v>
       </c>
       <c r="E2">
-        <v>0.08599999999999999</v>
+        <v>0.1752</v>
       </c>
       <c r="G2">
-        <v>0.1225235602094241</v>
+        <v>0.08872023030620257</v>
       </c>
       <c r="H2">
-        <v>0.1225235602094241</v>
+        <v>0.08872023030620257</v>
       </c>
       <c r="I2">
-        <v>0.1014173816627017</v>
+        <v>0.09604815493326356</v>
       </c>
       <c r="J2">
-        <v>0.09479933027663577</v>
+        <v>0.08401732774448746</v>
       </c>
       <c r="K2">
-        <v>16.701</v>
+        <v>29.09</v>
       </c>
       <c r="L2">
-        <v>0.08743979057591623</v>
+        <v>0.07613190264328711</v>
       </c>
       <c r="M2">
-        <v>9.385999999999999</v>
+        <v>6.179079999999999</v>
       </c>
       <c r="N2">
-        <v>0.04525554484088717</v>
+        <v>0.03751718275652702</v>
       </c>
       <c r="O2">
-        <v>0.5620022753128554</v>
+        <v>0.2124125128910278</v>
       </c>
       <c r="P2">
-        <v>9.385999999999999</v>
+        <v>6.179079999999999</v>
       </c>
       <c r="Q2">
-        <v>0.04525554484088717</v>
+        <v>0.03751718275652702</v>
       </c>
       <c r="R2">
-        <v>0.5620022753128554</v>
+        <v>0.2124125128910278</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>52.1</v>
+        <v>121.3</v>
       </c>
       <c r="V2">
-        <v>0.251205400192864</v>
+        <v>0.7364905889496055</v>
       </c>
       <c r="W2">
-        <v>0.07725274725274725</v>
+        <v>0.1657556461198845</v>
       </c>
       <c r="X2">
-        <v>0.0554805272578676</v>
+        <v>0.05509253993312482</v>
       </c>
       <c r="Y2">
-        <v>0.02177221999487965</v>
+        <v>0.1106631061867597</v>
       </c>
       <c r="Z2">
-        <v>1.217596626023447</v>
+        <v>2.934715821812596</v>
       </c>
       <c r="AA2">
-        <v>0.07539356499356499</v>
+        <v>0.2426203787389128</v>
       </c>
       <c r="AB2">
-        <v>0.0554805272578676</v>
+        <v>0.05199192126089672</v>
       </c>
       <c r="AC2">
-        <v>0.01991303773569739</v>
+        <v>0.190628457478016</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="AE2">
-        <v>1.416400512119924</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.416400512119924</v>
+        <v>25.4</v>
       </c>
       <c r="AG2">
-        <v>-50.68359948788008</v>
+        <v>-95.90000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.006782994576317842</v>
+        <v>0.1336138874276696</v>
       </c>
       <c r="AI2">
-        <v>0.006277914676880221</v>
+        <v>0.1157702825888788</v>
       </c>
       <c r="AJ2">
-        <v>-0.3234096707316882</v>
+        <v>-1.39389534883721</v>
       </c>
       <c r="AK2">
-        <v>-0.2920968815529336</v>
+        <v>-0.9775739041794089</v>
       </c>
       <c r="AL2">
-        <v>0.58</v>
+        <v>0.7769999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.58</v>
+        <v>0.7769999999999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.6446700507614213</v>
       </c>
       <c r="AO2">
-        <v>32.39137931034483</v>
+        <v>47.23294723294724</v>
       </c>
       <c r="AP2">
-        <v>-2.258929424070958</v>
+        <v>-2.434010152284264</v>
       </c>
       <c r="AQ2">
-        <v>32.39137931034483</v>
+        <v>47.23294723294724</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MUA Ltd (MUSE:MUAL.N0000)</t>
+          <t>Swan General Ltd (MUSE:SWAN.N0000)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07290000000000001</v>
+        <v>0.529</v>
       </c>
       <c r="E3">
-        <v>0.141</v>
+        <v>0.291</v>
       </c>
       <c r="G3">
-        <v>0.1158167675021608</v>
+        <v>0.07052510540436949</v>
       </c>
       <c r="H3">
-        <v>0.1158167675021608</v>
+        <v>0.07052510540436949</v>
       </c>
       <c r="I3">
-        <v>0.1130831451821609</v>
+        <v>0.09237255653507093</v>
       </c>
       <c r="J3">
-        <v>0.1002611192717427</v>
+        <v>0.08579505542770985</v>
       </c>
       <c r="K3">
-        <v>9.789999999999999</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>0.08461538461538461</v>
+        <v>0.08049060942889996</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>2.98908</v>
       </c>
       <c r="N3">
-        <v>0.03219512195121951</v>
+        <v>0.04782527999999999</v>
       </c>
       <c r="O3">
-        <v>0.3370786516853932</v>
+        <v>0.1423371428571428</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>2.98908</v>
       </c>
       <c r="Q3">
-        <v>0.03219512195121951</v>
+        <v>0.04782527999999999</v>
       </c>
       <c r="R3">
-        <v>0.3370786516853932</v>
+        <v>0.1423371428571428</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>24.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V3">
-        <v>0.2351219512195122</v>
+        <v>1.5824</v>
       </c>
       <c r="W3">
-        <v>0.1312332439678284</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="X3">
-        <v>0.05590666963620733</v>
+        <v>0.05071774044130588</v>
       </c>
       <c r="Y3">
-        <v>0.0753265743316211</v>
+        <v>0.1736412339176685</v>
       </c>
       <c r="Z3">
-        <v>2.004629515586372</v>
+        <v>3.310913705583756</v>
       </c>
       <c r="AA3">
-        <v>0.200986398957861</v>
+        <v>0.2840600248869226</v>
       </c>
       <c r="AB3">
-        <v>0.05573958484067493</v>
+        <v>0.05071774044130588</v>
       </c>
       <c r="AC3">
-        <v>0.145246814117186</v>
+        <v>0.2333422844456167</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.416400512119924</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.416400512119924</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-22.68359948788008</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.01363019220392191</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0151460118691839</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.2841972244092319</v>
+        <v>2.717032967032967</v>
       </c>
       <c r="AK3">
-        <v>-0.3267757953528515</v>
+        <v>-30.90625000000011</v>
       </c>
       <c r="AL3">
-        <v>0.47</v>
+        <v>0.061</v>
       </c>
       <c r="AM3">
-        <v>0.47</v>
+        <v>0.061</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>26.59574468085107</v>
+        <v>395.0819672131148</v>
       </c>
       <c r="AP3">
-        <v>-1.525768446080586</v>
+        <v>-3.893700787401575</v>
       </c>
       <c r="AQ3">
-        <v>26.59574468085107</v>
+        <v>395.0819672131148</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Swan General Ltd (MUSE:SWAN.N0000)</t>
+          <t>MUA Ltd (MUSE:MUAL.N0000)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0364</v>
+        <v>0.09970000000000001</v>
       </c>
       <c r="E4">
-        <v>0.031</v>
+        <v>0.0594</v>
       </c>
       <c r="G4">
-        <v>0.1807017543859649</v>
+        <v>0.1278877887788779</v>
       </c>
       <c r="H4">
-        <v>0.1807017543859649</v>
+        <v>0.1278877887788779</v>
       </c>
       <c r="I4">
-        <v>0.12</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="J4">
-        <v>0.1101142857142857</v>
+        <v>0.08531922157733014</v>
       </c>
       <c r="K4">
-        <v>7.03</v>
+        <v>8.09</v>
       </c>
       <c r="L4">
-        <v>0.1233333333333333</v>
+        <v>0.06674917491749174</v>
       </c>
       <c r="M4">
-        <v>5.43</v>
+        <v>3.19</v>
       </c>
       <c r="N4">
-        <v>0.06882129277566539</v>
+        <v>0.0312133072407045</v>
       </c>
       <c r="O4">
-        <v>0.7724039829302987</v>
+        <v>0.3943139678615575</v>
       </c>
       <c r="P4">
-        <v>5.43</v>
+        <v>3.19</v>
       </c>
       <c r="Q4">
-        <v>0.06882129277566539</v>
+        <v>0.0312133072407045</v>
       </c>
       <c r="R4">
-        <v>0.7724039829302987</v>
+        <v>0.3943139678615575</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,192 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>14.8</v>
+        <v>22.4</v>
       </c>
       <c r="V4">
-        <v>0.1875792141951838</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="W4">
-        <v>0.07725274725274725</v>
+        <v>0.1071523178807947</v>
       </c>
       <c r="X4">
-        <v>0.0554805272578676</v>
+        <v>0.05946733942494377</v>
       </c>
       <c r="Y4">
-        <v>0.02177221999487965</v>
+        <v>0.04768497845585093</v>
       </c>
       <c r="Z4">
-        <v>0.6846846846846847</v>
+        <v>2.357976653696498</v>
       </c>
       <c r="AA4">
-        <v>0.07539356499356499</v>
+        <v>0.201180732590903</v>
       </c>
       <c r="AB4">
-        <v>0.0554805272578676</v>
+        <v>0.05326610208048757</v>
       </c>
       <c r="AC4">
-        <v>0.01991303773569739</v>
+        <v>0.1479146305104154</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="AG4">
-        <v>-14.8</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.1990595611285266</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.216538789428815</v>
       </c>
       <c r="AJ4">
-        <v>-0.2308892355694228</v>
+        <v>0.0285171102661597</v>
       </c>
       <c r="AK4">
-        <v>-0.1608695652173913</v>
+        <v>0.03161222339304531</v>
       </c>
       <c r="AL4">
-        <v>0.11</v>
+        <v>0.716</v>
       </c>
       <c r="AM4">
-        <v>0.11</v>
+        <v>0.716</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.814285714285714</v>
       </c>
       <c r="AO4">
-        <v>62.18181818181818</v>
+        <v>17.59776536312849</v>
       </c>
       <c r="AP4">
-        <v>-1.955085865257596</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ4">
-        <v>62.18181818181818</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mauritius</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eagle Insurance Limited (MUSE:MEI.N0000)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>-0.0529</v>
-      </c>
-      <c r="G5">
-        <v>-0.01628415300546448</v>
-      </c>
-      <c r="H5">
-        <v>-0.01628415300546448</v>
-      </c>
-      <c r="I5">
-        <v>-0.03021857923497268</v>
-      </c>
-      <c r="J5">
-        <v>-0.03021857923497268</v>
-      </c>
-      <c r="K5">
-        <v>-0.119</v>
-      </c>
-      <c r="L5">
-        <v>-0.006502732240437158</v>
-      </c>
-      <c r="M5">
-        <v>0.656</v>
-      </c>
-      <c r="N5">
-        <v>0.02523076923076923</v>
-      </c>
-      <c r="O5">
-        <v>-5.512605042016808</v>
-      </c>
-      <c r="P5">
-        <v>0.656</v>
-      </c>
-      <c r="Q5">
-        <v>0.02523076923076923</v>
-      </c>
-      <c r="R5">
-        <v>-5.512605042016808</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>13.2</v>
-      </c>
-      <c r="V5">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="W5">
-        <v>-0.004407407407407408</v>
-      </c>
-      <c r="X5">
-        <v>0.0554805272578676</v>
-      </c>
-      <c r="Y5">
-        <v>-0.05988793466527501</v>
-      </c>
-      <c r="Z5">
-        <v>1.150943396226415</v>
-      </c>
-      <c r="AA5">
-        <v>-0.03477987421383648</v>
-      </c>
-      <c r="AB5">
-        <v>0.0554805272578676</v>
-      </c>
-      <c r="AC5">
-        <v>-0.09026040147170408</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-13.2</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>-1.03125</v>
-      </c>
-      <c r="AK5">
-        <v>-1.090909090909091</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+        <v>17.59776536312849</v>
       </c>
     </row>
   </sheetData>
